--- a/biology/Botanique/Chondria/Chondria.xlsx
+++ b/biology/Botanique/Chondria/Chondria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le genre de coléoptère, voir Chondria (insecte).
 Chondria est un genre d'algues rouges de la famille des Rhodomelaceae. Ce genre inclut de nombreuses espèces de taille très variable avec des thales pouvant aller de quelques millimètres jusqu'à un mètre.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 juin 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 juin 2012) :
 Chondria acrorhizophora Setchell &amp; N.L.Gardner
 Chondria angustissima Gordon-Mills &amp; Womersley
 Chondria arborescens (J.Agardh) De Toni (Sans vérification)
@@ -599,7 +613,7 @@
 Chondria vermicularis  (Sans vérification)
 Chondria viticulosa A.J.K.Millar &amp; M.J.Wynne
 Chondria xishaensis J.-F.Xhang &amp; B.-M.Xia
-Selon Catalogue of Life                                   (3 juin 2012)[2] :
+Selon Catalogue of Life                                   (3 juin 2012) :
 Chondria acrorhizophora
 Chondria angustissima
 Chondria arcuata
@@ -672,7 +686,7 @@
 Chondria succulenta
 Chondria transversalis
 Chondria viticulosa
-Selon ITIS      (3 juin 2012)[3] :
+Selon ITIS      (3 juin 2012) :
 Chondria arcuata
 Chondria atropurpurea
 Chondria baileyana Montagne
@@ -692,7 +706,7 @@
 Chondria sedifolia
 Chondria telmoensis
 Chondria tenuissima (Goodenough &amp; Woodward) Agardh
-Selon World Register of Marine Species                               (3 juin 2012)[4] :
+Selon World Register of Marine Species                               (3 juin 2012) :
 Chondria acrorhizophora Setchell &amp; N.L.Gardner, 1924
 Chondria angustissima Gordon-Mills &amp; Womersley, 1987
 Chondria arcuata Hollenberg, 1945
